--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>主键</t>
   </si>
@@ -279,6 +279,21 @@
   </si>
   <si>
     <t>c_resource</t>
+  </si>
+  <si>
+    <t>npc_summoned_dummy</t>
+  </si>
+  <si>
+    <t>召唤物傀儡</t>
+  </si>
+  <si>
+    <t>models/heroes/monkey_king/transform_invisiblebox.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_FLY</t>
+  </si>
+  <si>
+    <t>c_summoned</t>
   </si>
 </sst>
 </file>
@@ -1183,13 +1198,13 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,7 +1537,7 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2100,37 +2115,89 @@
       <c r="AE6" s="26"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>200</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>10</v>
+      </c>
+      <c r="J7" s="14">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="14">
+        <v>125</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="27"/>
+      <c r="S7" s="14">
+        <v>300</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>160</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="26"/>
     </row>
     <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A8" s="17"/>
@@ -2162,8 +2229,8 @@
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="29"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="28"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:31">
       <c r="A9" s="13"/>
@@ -2196,7 +2263,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="25"/>
-      <c r="AE9" s="27"/>
+      <c r="AE9" s="29"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:31">
       <c r="A10" s="17"/>
@@ -2228,8 +2295,8 @@
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="29"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="28"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:31">
       <c r="A11" s="13"/>
@@ -2262,7 +2329,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="25"/>
-      <c r="AE11" s="27"/>
+      <c r="AE11" s="29"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:31">
       <c r="A12" s="17"/>
@@ -2294,8 +2361,8 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="29"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:31">
       <c r="A13" s="13"/>
@@ -2328,7 +2395,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="27"/>
+      <c r="AE13" s="29"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:31">
       <c r="A14" s="17"/>
@@ -2360,8 +2427,8 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="29"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="28"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:31">
       <c r="A15" s="13"/>
@@ -2394,7 +2461,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="27"/>
+      <c r="AE15" s="29"/>
     </row>
     <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A16" s="17"/>
@@ -2426,8 +2493,8 @@
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="29"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="28"/>
     </row>
     <row r="17" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A17" s="13"/>
@@ -2460,7 +2527,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="25"/>
-      <c r="AE17" s="27"/>
+      <c r="AE17" s="29"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:31">
       <c r="A18" s="13"/>
@@ -2493,7 +2560,7 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="25"/>
-      <c r="AE18" s="27"/>
+      <c r="AE18" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:V18">

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -1536,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1835,13 +1835,13 @@
         <v>30</v>
       </c>
       <c r="AB3" s="14">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AC3" s="14">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AD3" s="25">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AE3" s="26" t="s">
         <v>68</v>
@@ -1926,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="AB4" s="14">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AC4" s="14">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AD4" s="25">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AE4" s="26" t="s">
         <v>68</v>
@@ -2017,13 +2017,13 @@
         <v>30</v>
       </c>
       <c r="AB5" s="14">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AC5" s="14">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AD5" s="25">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AE5" s="26" t="s">
         <v>68</v>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>主键</t>
   </si>
@@ -119,9 +119,6 @@
     <t>#Loc{}</t>
   </si>
   <si>
-    <t>#Loc{}_Description</t>
-  </si>
-  <si>
     <t>BaseClass</t>
   </si>
   <si>
@@ -279,21 +276,6 @@
   </si>
   <si>
     <t>c_resource</t>
-  </si>
-  <si>
-    <t>npc_summoned_dummy</t>
-  </si>
-  <si>
-    <t>召唤物傀儡</t>
-  </si>
-  <si>
-    <t>models/heroes/monkey_king/transform_invisiblebox.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_FLY</t>
-  </si>
-  <si>
-    <t>c_summoned</t>
   </si>
 </sst>
 </file>
@@ -1198,13 +1180,13 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1518,8 @@
   <sheetPr/>
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1558,7 +1540,7 @@
     <col min="14" max="14" width="50.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.175" style="2" customWidth="1"/>
     <col min="16" max="16" width="25.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.675" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.675" style="2" customWidth="1"/>
     <col min="19" max="19" width="21.8416666666667" style="2" customWidth="1"/>
     <col min="20" max="20" width="24.3416666666667" style="3" customWidth="1"/>
@@ -1668,104 +1650,102 @@
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AE2" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="15">
         <v>0</v>
@@ -1795,16 +1775,16 @@
         <v>0.3</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" s="14">
         <v>0.8</v>
       </c>
       <c r="P3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="14">
@@ -1814,19 +1794,19 @@
         <v>0.5</v>
       </c>
       <c r="U3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="X3" s="14">
         <v>0</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="14">
         <v>160</v>
@@ -1844,19 +1824,19 @@
         <v>3000</v>
       </c>
       <c r="AE3" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="15">
         <v>0</v>
@@ -1886,16 +1866,16 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4" s="14">
         <v>2</v>
       </c>
       <c r="P4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14">
@@ -1905,19 +1885,19 @@
         <v>0.5</v>
       </c>
       <c r="U4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="X4" s="14">
         <v>0</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z4" s="14">
         <v>160</v>
@@ -1935,19 +1915,19 @@
         <v>3000</v>
       </c>
       <c r="AE4" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -1977,16 +1957,16 @@
         <v>0.3</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5" s="14">
         <v>2</v>
       </c>
       <c r="P5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14">
@@ -1996,19 +1976,19 @@
         <v>0.5</v>
       </c>
       <c r="U5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="W5" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="X5" s="14">
         <v>0</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="14">
         <v>160</v>
@@ -2026,19 +2006,19 @@
         <v>3000</v>
       </c>
       <c r="AE5" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -2068,7 +2048,7 @@
         <v>0.3</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" s="14">
         <v>0.5</v>
@@ -2083,19 +2063,19 @@
         <v>0.5</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="X6" s="14">
         <v>1</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z6" s="14">
         <v>160</v>
@@ -2115,122 +2095,70 @@
       <c r="AE6" s="26"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>200</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14">
-        <v>10</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="14">
-        <v>125</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="14">
-        <v>1</v>
-      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="14">
-        <v>300</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>160</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="25">
-        <v>0</v>
-      </c>
+      <c r="S7" s="14"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="25"/>
       <c r="AE7" s="26"/>
     </row>
-    <row r="8" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="28"/>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:31">
       <c r="A9" s="13"/>
@@ -2263,7 +2191,7 @@
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="25"/>
-      <c r="AE9" s="29"/>
+      <c r="AE9" s="27"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:31">
       <c r="A10" s="17"/>
@@ -2295,8 +2223,8 @@
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:31">
       <c r="A11" s="13"/>
@@ -2329,7 +2257,7 @@
       <c r="AB11" s="14"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="25"/>
-      <c r="AE11" s="29"/>
+      <c r="AE11" s="27"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:31">
       <c r="A12" s="17"/>
@@ -2361,8 +2289,8 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="29"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:31">
       <c r="A13" s="13"/>
@@ -2395,7 +2323,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="29"/>
+      <c r="AE13" s="27"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:31">
       <c r="A14" s="17"/>
@@ -2427,8 +2355,8 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="29"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:31">
       <c r="A15" s="13"/>
@@ -2461,7 +2389,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
       <c r="AD15" s="25"/>
-      <c r="AE15" s="29"/>
+      <c r="AE15" s="27"/>
     </row>
     <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A16" s="17"/>
@@ -2493,8 +2421,8 @@
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="29"/>
     </row>
     <row r="17" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A17" s="13"/>
@@ -2527,7 +2455,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="25"/>
-      <c r="AE17" s="29"/>
+      <c r="AE17" s="27"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:31">
       <c r="A18" s="13"/>
@@ -2560,7 +2488,7 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="25"/>
-      <c r="AE18" s="29"/>
+      <c r="AE18" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:V18">

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$V$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$V$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>主键</t>
   </si>
@@ -203,63 +203,54 @@
     <t>vscripts</t>
   </si>
   <si>
+    <t>npc_public_dummy</t>
+  </si>
+  <si>
+    <t>测试单位</t>
+  </si>
+  <si>
+    <t>npc_dota_creature</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/dummy/dummy_large.vmdl</t>
+  </si>
+  <si>
+    <t>public_dummy</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
+  </si>
+  <si>
+    <t>c_test</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_HUGE</t>
+  </si>
+  <si>
     <t>npc_public_test</t>
   </si>
   <si>
-    <t>测试单位</t>
-  </si>
-  <si>
-    <t>npc_dota_creature</t>
-  </si>
-  <si>
-    <t>models/items/furion/treant_stump.vmdl</t>
-  </si>
-  <si>
-    <t>custom_datadriven_units</t>
-  </si>
-  <si>
-    <t>public_phase_move</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+    <t>测试单位2</t>
+  </si>
+  <si>
+    <t>npc_dota_creep_neutral</t>
+  </si>
+  <si>
+    <t>models/heroes/undying/undying_minion.vmdl</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
   </si>
   <si>
-    <t>c_test</t>
-  </si>
-  <si>
-    <t>DOTA_HULL_SIZE_HUGE</t>
+    <t>DOTA_HULL_SIZE_SMALLEST</t>
   </si>
   <si>
     <t>ai/ai_basic.lua</t>
   </si>
   <si>
-    <t>npc_public_test2</t>
-  </si>
-  <si>
-    <t>测试单位2</t>
-  </si>
-  <si>
-    <t>npc_dota_creep_neutral</t>
-  </si>
-  <si>
-    <t>models/heroes/undying/undying_minion.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_HULL_SIZE_SMALLEST</t>
-  </si>
-  <si>
-    <t>npc_public_test3</t>
-  </si>
-  <si>
-    <t>测试单位3</t>
-  </si>
-  <si>
-    <t>npc_dota_creep</t>
-  </si>
-  <si>
     <t>npc_exp</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
   </si>
   <si>
     <t>models/prop/prop0069/prop0069.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
   </si>
   <si>
     <t>c_resource</t>
@@ -1516,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1754,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -1778,14 +1766,12 @@
         <v>60</v>
       </c>
       <c r="O3" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14">
         <v>160</v>
@@ -1794,19 +1780,19 @@
         <v>0.5</v>
       </c>
       <c r="U3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="X3" s="14">
         <v>0</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="14">
         <v>160</v>
@@ -1823,20 +1809,18 @@
       <c r="AD3" s="25">
         <v>3000</v>
       </c>
-      <c r="AE3" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="AE3" s="26"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="15">
         <v>0</v>
@@ -1866,17 +1850,13 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O4" s="14">
         <v>2</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14">
         <v>300</v>
@@ -1885,19 +1865,19 @@
         <v>0.5</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="X4" s="14">
         <v>0</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z4" s="14">
         <v>160</v>
@@ -1915,7 +1895,7 @@
         <v>3000</v>
       </c>
       <c r="AE4" s="26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
@@ -1957,17 +1937,13 @@
         <v>0.3</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O5" s="14">
-        <v>2</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>62</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14">
         <v>300</v>
@@ -1976,19 +1952,19 @@
         <v>0.5</v>
       </c>
       <c r="U5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="W5" s="14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="X5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z5" s="14">
         <v>160</v>
@@ -1997,101 +1973,47 @@
         <v>30</v>
       </c>
       <c r="AB5" s="14">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="14">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="25">
-        <v>3000</v>
-      </c>
-      <c r="AE5" s="26" t="s">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="26"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>77</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>200</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>10</v>
-      </c>
-      <c r="J6" s="14">
-        <v>10</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="14">
-        <v>125</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="14">
-        <v>300</v>
-      </c>
-      <c r="T6" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>160</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="25">
-        <v>0</v>
-      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="25"/>
       <c r="AE6" s="26"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
@@ -2127,7 +2049,7 @@
       <c r="AD7" s="25"/>
       <c r="AE7" s="26"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+    <row r="8" ht="22.5" customHeight="1" spans="1:31">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -2158,273 +2080,273 @@
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="25"/>
-      <c r="AE8" s="26"/>
+      <c r="AE8" s="27"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="27"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="29"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="29"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="27"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="27"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="29"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="29"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="27"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="27"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="29"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="29"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="27"/>
     </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="27"/>
+    <row r="15" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="29"/>
     </row>
     <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="29"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="27"/>
     </row>
-    <row r="17" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+    <row r="17" ht="22.5" customHeight="1" spans="1:31">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2457,41 +2379,8 @@
       <c r="AD17" s="25"/>
       <c r="AE17" s="27"/>
     </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="27"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:V18">
+  <autoFilter ref="A1:V17">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -227,7 +227,7 @@
     <t>c_test</t>
   </si>
   <si>
-    <t>DOTA_HULL_SIZE_HUGE</t>
+    <t>DOTA_HULL_SIZE_SIEGE</t>
   </si>
   <si>
     <t>npc_public_test</t>
@@ -1506,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>主键</t>
   </si>
@@ -236,19 +236,7 @@
     <t>测试单位2</t>
   </si>
   <si>
-    <t>npc_dota_creep_neutral</t>
-  </si>
-  <si>
-    <t>models/heroes/undying/undying_minion.vmdl</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
-  </si>
-  <si>
     <t>DOTA_HULL_SIZE_SMALLEST</t>
-  </si>
-  <si>
-    <t>ai/ai_basic.lua</t>
   </si>
   <si>
     <t>npc_exp</t>
@@ -1506,8 +1494,8 @@
   <sheetPr/>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1820,7 +1808,7 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E4" s="15">
         <v>0</v>
@@ -1829,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="16">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -1850,12 +1838,14 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O4" s="14">
-        <v>2</v>
-      </c>
-      <c r="P4" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14">
@@ -1868,7 +1858,7 @@
         <v>62</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>64</v>
@@ -1877,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="14">
         <v>160</v>
@@ -1894,20 +1884,18 @@
       <c r="AD4" s="25">
         <v>3000</v>
       </c>
-      <c r="AE4" s="26" t="s">
-        <v>72</v>
-      </c>
+      <c r="AE4" s="26"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A5" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
@@ -1937,7 +1925,7 @@
         <v>0.3</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O5" s="14">
         <v>0.5</v>
@@ -1958,13 +1946,13 @@
         <v>63</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X5" s="14">
         <v>1</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="14">
         <v>160</v>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>主键</t>
   </si>
@@ -252,6 +252,33 @@
   </si>
   <si>
     <t>c_resource</t>
+  </si>
+  <si>
+    <t>npc_football</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/soccer_ball.vmdl</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>npc_football_goal</t>
+  </si>
+  <si>
+    <t>球门</t>
+  </si>
+  <si>
+    <t>models/development/invisiblebox.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_point</t>
+  </si>
+  <si>
+    <t>任务点</t>
   </si>
 </sst>
 </file>
@@ -1156,13 +1183,13 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1972,103 +1999,263 @@
       <c r="AE5" s="26"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>200</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14">
+        <v>10</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="14">
+        <v>125</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="25"/>
+      <c r="S6" s="14">
+        <v>300</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>160</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>0</v>
+      </c>
       <c r="AE6" s="26"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>200</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>10</v>
+      </c>
+      <c r="J7" s="14">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="14">
+        <v>125</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="14">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="25"/>
+      <c r="S7" s="14">
+        <v>300</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>160</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
       <c r="AE7" s="26"/>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
+      <c r="A8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>200</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14">
+        <v>10</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="14">
+        <v>125</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="27"/>
+      <c r="S8" s="14">
+        <v>300</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>160</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:31">
       <c r="A9" s="17"/>
@@ -2100,8 +2287,8 @@
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="29"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="28"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:31">
       <c r="A10" s="13"/>
@@ -2134,7 +2321,7 @@
       <c r="AB10" s="14"/>
       <c r="AC10" s="14"/>
       <c r="AD10" s="25"/>
-      <c r="AE10" s="27"/>
+      <c r="AE10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:31">
       <c r="A11" s="17"/>
@@ -2166,8 +2353,8 @@
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="29"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="28"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:31">
       <c r="A12" s="13"/>
@@ -2200,7 +2387,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="25"/>
-      <c r="AE12" s="27"/>
+      <c r="AE12" s="29"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:31">
       <c r="A13" s="17"/>
@@ -2232,8 +2419,8 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="29"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="28"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:31">
       <c r="A14" s="13"/>
@@ -2266,7 +2453,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="25"/>
-      <c r="AE14" s="27"/>
+      <c r="AE14" s="29"/>
     </row>
     <row r="15" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A15" s="17"/>
@@ -2298,8 +2485,8 @@
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="29"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="28"/>
     </row>
     <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A16" s="13"/>
@@ -2332,7 +2519,7 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="25"/>
-      <c r="AE16" s="27"/>
+      <c r="AE16" s="29"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:31">
       <c r="A17" s="13"/>
@@ -2365,10 +2552,10 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
       <c r="AD17" s="25"/>
-      <c r="AE17" s="27"/>
+      <c r="AE17" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V17">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V17" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$V$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>主键</t>
   </si>
@@ -68,6 +68,9 @@
     <t>模型</t>
   </si>
   <si>
+    <t>饰品</t>
+  </si>
+  <si>
     <t>模型尺寸</t>
   </si>
   <si>
@@ -152,6 +155,15 @@
     <t>Model</t>
   </si>
   <si>
+    <t>Creature[{]</t>
+  </si>
+  <si>
+    <t>AttachWearables[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
     <t>ModelScale</t>
   </si>
   <si>
@@ -279,6 +291,108 @@
   </si>
   <si>
     <t>任务点</t>
+  </si>
+  <si>
+    <t>npc_mission_ball</t>
+  </si>
+  <si>
+    <t>飞球</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/pig_balloon.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_pig</t>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/pig.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_box</t>
+  </si>
+  <si>
+    <t>箱子</t>
+  </si>
+  <si>
+    <t>models/heroes/ringmaster/ringmaster_box.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_big_fish</t>
+  </si>
+  <si>
+    <t>大鱼人</t>
+  </si>
+  <si>
+    <t>models/items/hex/fish_hex/fish_hex.vmdl</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>npc_mission_spider</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>public_creature</t>
+  </si>
+  <si>
+    <t>mission_spider</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MELEE_ATTACK</t>
+  </si>
+  <si>
+    <t>ai/ai_elite.lua</t>
+  </si>
+  <si>
+    <t>npc_mission_centaur</t>
+  </si>
+  <si>
+    <t>半人马</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/n_creep_centaur_lrg.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_dummy</t>
+  </si>
+  <si>
+    <t>任务单位</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_NONE</t>
+  </si>
+  <si>
+    <t>npc_mission_dire_5</t>
+  </si>
+  <si>
+    <t>夜宴任务怪</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_worg_small/n_creep_worg_small.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_npc_dire</t>
+  </si>
+  <si>
+    <t>夜宴任务</t>
+  </si>
+  <si>
+    <t>models/heroes/nightstalker/nightstalker.vmdl</t>
+  </si>
+  <si>
+    <t>npc_mission_npc_radiant</t>
+  </si>
+  <si>
+    <t>天辉任务</t>
+  </si>
+  <si>
+    <t>models/heroes/keeper_of_the_light/keeper_of_the_light.vmdl</t>
   </si>
 </sst>
 </file>
@@ -293,7 +407,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +421,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -314,7 +440,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -464,12 +598,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,13 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor theme="1" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -686,11 +826,20 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
@@ -699,29 +848,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +869,32 @@
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
@@ -742,8 +904,146 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
       </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -759,9 +1059,7 @@
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
@@ -772,14 +1070,40 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,11 +1112,11 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,14 +1125,12 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -816,43 +1138,11 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,138 +1262,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,79 +1407,154 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1610,563 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{587559F0-F245-4E2F-8F56-19A41B8766F6}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{CDFFEECA-9B28-472D-B795-489AEDA58EAF}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="firstTotalCell" dxfId="8"/>
+      <tableStyleElement type="lastTotalCell" dxfId="7"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0B9BB107-0411-427A-96F4-CA105ED9E8B2}">
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="lastColumn" dxfId="17"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="00FF6600"/>
@@ -1519,1043 +2440,1888 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <pane xSplit="3" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.675" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.675" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3416666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.675" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.675" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.675" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.175" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.175" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.675" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.3416666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.675" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5083333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.175" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.8416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5083333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.3416666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.675" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.8416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.175" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5083333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.3416666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.675" style="2" customWidth="1"/>
     <col min="14" max="14" width="50.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.175" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.675" style="2" customWidth="1"/>
-    <col min="19" max="19" width="21.8416666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="24.3416666666667" style="3" customWidth="1"/>
-    <col min="21" max="21" width="32.5083333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="31.8416666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.3416666666667" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.175" style="2" customWidth="1"/>
-    <col min="25" max="27" width="27.0083333333333" style="2" customWidth="1"/>
-    <col min="28" max="28" width="25.0083333333333" style="2" customWidth="1"/>
-    <col min="29" max="30" width="27.75" style="2" customWidth="1"/>
-    <col min="31" max="31" width="14.8416666666667" style="2" customWidth="1"/>
-    <col min="32" max="16372" width="77.25" style="2"/>
-    <col min="16373" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="13.675" style="5" customWidth="1"/>
+    <col min="16" max="16" width="22.5083333333333" style="5" customWidth="1"/>
+    <col min="17" max="25" width="6.24166666666667" style="5" customWidth="1"/>
+    <col min="26" max="27" width="3.625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="15.175" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="30" max="30" width="16.8416666666667" style="2" customWidth="1"/>
+    <col min="31" max="31" width="8.675" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.8416666666667" style="2" customWidth="1"/>
+    <col min="33" max="33" width="24.3416666666667" style="3" customWidth="1"/>
+    <col min="34" max="34" width="32.5083333333333" style="2" customWidth="1"/>
+    <col min="35" max="35" width="31.8416666666667" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.5083333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.175" style="2" customWidth="1"/>
+    <col min="38" max="38" width="28.0083333333333" style="2" customWidth="1"/>
+    <col min="39" max="39" width="21.0083333333333" style="2" customWidth="1"/>
+    <col min="40" max="40" width="14.8416666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="25.0083333333333" style="2" customWidth="1"/>
+    <col min="42" max="43" width="14.625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="15.8416666666667" style="2" customWidth="1"/>
+    <col min="45" max="16383" width="77.25" style="2"/>
+    <col min="16384" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="AF1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AG1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AH1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AI1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AK1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AL1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AM1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AN1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AO1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AP1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AQ1" s="39" t="s">
         <v>26</v>
       </c>
+      <c r="AR1" s="50" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:31">
+    <row r="2" s="2" customFormat="1" ht="39" customHeight="1" spans="1:44">
       <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="18">
+        <v>1</v>
+      </c>
+      <c r="R2" s="18">
+        <v>2</v>
+      </c>
+      <c r="S2" s="18">
+        <v>3</v>
+      </c>
+      <c r="T2" s="18">
+        <v>4</v>
+      </c>
+      <c r="U2" s="18">
+        <v>5</v>
+      </c>
+      <c r="V2" s="18">
+        <v>6</v>
+      </c>
+      <c r="W2" s="18">
+        <v>7</v>
+      </c>
+      <c r="X2" s="18">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="AA2" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="AC2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="AD2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="AE2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="AF2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AG2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AH2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AI2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AK2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AL2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AM2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AN2" s="43" t="s">
         <v>56</v>
       </c>
+      <c r="AO2" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" s="51" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
         <v>5000</v>
       </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
         <v>10</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="24">
         <v>10</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="24">
         <v>0.5</v>
       </c>
-      <c r="L3" s="14">
-        <v>125</v>
-      </c>
-      <c r="M3" s="14">
+      <c r="L3" s="24">
+        <v>25</v>
+      </c>
+      <c r="M3" s="24">
         <v>0.3</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="N3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="15">
         <v>1</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="AC3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18">
         <v>160</v>
       </c>
-      <c r="T3" s="15">
+      <c r="AG3" s="16">
         <v>0.5</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="14" t="s">
+      <c r="AH3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>160</v>
+      </c>
+      <c r="AN3" s="18">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AP3" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AQ3" s="18">
+        <v>3000</v>
+      </c>
+      <c r="AR3" s="52"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>10</v>
+      </c>
+      <c r="J4" s="24">
+        <v>10</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="24">
+        <v>25</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="14" t="s">
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM4" s="24">
         <v>160</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AN4" s="24">
         <v>30</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AO4" s="24">
         <v>3000</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AP4" s="24">
         <v>3000</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AQ4" s="24">
         <v>3000</v>
       </c>
-      <c r="AE3" s="26"/>
+      <c r="AR4" s="53"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A4" s="13" t="s">
+    <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>200</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>10</v>
+      </c>
+      <c r="J5" s="24">
+        <v>10</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="24">
+        <v>25</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG5" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="AI5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="AJ5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN5" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="53"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>200</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J6" s="24">
         <v>10</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K6" s="24">
         <v>0.5</v>
       </c>
-      <c r="L4" s="14">
-        <v>125</v>
-      </c>
-      <c r="M4" s="14">
+      <c r="L6" s="24">
+        <v>25</v>
+      </c>
+      <c r="M6" s="24">
         <v>0.3</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="N6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="21">
         <v>1</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="AC6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24">
         <v>300</v>
       </c>
-      <c r="T4" s="15">
+      <c r="AG6" s="22">
         <v>0.5</v>
       </c>
-      <c r="U4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="14" t="s">
+      <c r="AH6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI6" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN6" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="53"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>200</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>10</v>
+      </c>
+      <c r="J7" s="24">
+        <v>10</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="24">
+        <v>25</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN7" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="53"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>200</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>10</v>
+      </c>
+      <c r="J8" s="24">
+        <v>10</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="24">
+        <v>25</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK8" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM8" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN8" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="53"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>200</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>10</v>
+      </c>
+      <c r="J9" s="24">
+        <v>10</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="24">
+        <v>25</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK9" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM9" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN9" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="53"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="14">
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>200</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>10</v>
+      </c>
+      <c r="J10" s="24">
+        <v>10</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="24">
+        <v>25</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM10" s="24">
         <v>160</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AN10" s="24">
         <v>30</v>
       </c>
-      <c r="AB4" s="14">
-        <v>3000</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>3000</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>3000</v>
-      </c>
-      <c r="AE4" s="26"/>
+      <c r="AO10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="53"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
+    <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>10</v>
+      </c>
+      <c r="J11" s="24">
+        <v>10</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="24">
+        <v>25</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK11" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM11" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN11" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="53"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
         <v>200</v>
       </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J12" s="24">
         <v>10</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K12" s="24">
         <v>0.5</v>
       </c>
-      <c r="L5" s="14">
-        <v>125</v>
-      </c>
-      <c r="M5" s="14">
+      <c r="L12" s="24">
+        <v>25</v>
+      </c>
+      <c r="M12" s="24">
         <v>0.3</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="14">
+      <c r="AM12" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN12" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="53"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>200</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>10</v>
+      </c>
+      <c r="J13" s="24">
+        <v>10</v>
+      </c>
+      <c r="K13" s="24">
         <v>0.5</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14">
+      <c r="L13" s="24">
+        <v>25</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24">
+        <v>250</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ13" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM13" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN13" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>200</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <v>10</v>
+      </c>
+      <c r="J14" s="24">
+        <v>10</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="24">
+        <v>25</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24">
+        <v>450</v>
+      </c>
+      <c r="AG14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK14" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM14" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN14" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="24">
+        <v>1000</v>
+      </c>
+      <c r="AR14" s="53"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>200</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
+        <v>10</v>
+      </c>
+      <c r="J15" s="24">
+        <v>10</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="24">
+        <v>25</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24">
+        <v>450</v>
+      </c>
+      <c r="AG15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM15" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN15" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="53"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>200</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <v>10</v>
+      </c>
+      <c r="J16" s="24">
+        <v>10</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="24">
+        <v>25</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24">
         <v>300</v>
       </c>
-      <c r="T5" s="15">
+      <c r="AG16" s="22">
         <v>0.5</v>
       </c>
-      <c r="U5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="14" t="s">
+      <c r="AH16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK16" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM16" s="24">
+        <v>160</v>
+      </c>
+      <c r="AN16" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="24">
+        <v>1000</v>
+      </c>
+      <c r="AR16" s="53"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="14">
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>200</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <v>10</v>
+      </c>
+      <c r="J17" s="24">
+        <v>10</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="24">
+        <v>25</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33">
+        <v>337</v>
+      </c>
+      <c r="R17" s="33">
+        <v>338</v>
+      </c>
+      <c r="S17" s="33">
+        <v>339</v>
+      </c>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="21">
         <v>1</v>
       </c>
-      <c r="Y5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="14">
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24">
+        <v>300</v>
+      </c>
+      <c r="AG17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK17" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM17" s="24">
         <v>160</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AN17" s="24">
         <v>30</v>
       </c>
-      <c r="AB5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="26"/>
+      <c r="AO17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="24">
+        <v>1000</v>
+      </c>
+      <c r="AR17" s="53"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
+    <row r="18" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A18" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
         <v>200</v>
       </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30">
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J18" s="30">
         <v>10</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K18" s="30">
         <v>0.5</v>
       </c>
-      <c r="L6" s="14">
-        <v>125</v>
-      </c>
-      <c r="M6" s="14">
+      <c r="L18" s="30">
+        <v>25</v>
+      </c>
+      <c r="M18" s="30">
         <v>0.3</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="N18" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35">
+        <v>252</v>
+      </c>
+      <c r="R18" s="35">
+        <v>253</v>
+      </c>
+      <c r="S18" s="35">
+        <v>254</v>
+      </c>
+      <c r="T18" s="35">
+        <v>255</v>
+      </c>
+      <c r="U18" s="35">
+        <v>256</v>
+      </c>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="26">
         <v>1</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14">
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30">
         <v>300</v>
       </c>
-      <c r="T6" s="15">
+      <c r="AG18" s="28">
         <v>0.5</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" s="14">
+      <c r="AH18" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK18" s="30">
         <v>1</v>
       </c>
-      <c r="Y6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z6" s="14">
+      <c r="AL18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM18" s="30">
         <v>160</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AN18" s="30">
         <v>30</v>
       </c>
-      <c r="AB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="26"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>200</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14">
-        <v>10</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="14">
-        <v>125</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="14">
-        <v>2</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14">
-        <v>300</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>160</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="26"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>200</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>10</v>
-      </c>
-      <c r="J8" s="14">
-        <v>10</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="14">
-        <v>125</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="14">
-        <v>1</v>
-      </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14">
-        <v>300</v>
-      </c>
-      <c r="T8" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="X8" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>160</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="26"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="28"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="29"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="28"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="29"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="28"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="29"/>
-    </row>
-    <row r="15" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="28"/>
-    </row>
-    <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="29"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:31">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="29"/>
+      <c r="AO18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="30">
+        <v>1000</v>
+      </c>
+      <c r="AR18" s="54"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V17" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI17" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
   <si>
     <t>主键</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>models/heroes/keeper_of_the_light/keeper_of_the_light.vmdl</t>
+  </si>
+  <si>
+    <t>npc_altar</t>
+  </si>
+  <si>
+    <t>圣坛</t>
+  </si>
+  <si>
+    <t>models/props_structures/radiant_statue001.vmdl</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1402,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1491,15 +1500,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,12 +1531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2138,7 +2135,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{587559F0-F245-4E2F-8F56-19A41B8766F6}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FA9F3FF8-7DE3-4BE7-BD4D-C5651C3EC0C4}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2147,7 +2144,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{CDFFEECA-9B28-472D-B795-489AEDA58EAF}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{04496306-8032-4739-A940-0241AD689FBA}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2159,7 +2156,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0B9BB107-0411-427A-96F4-CA105ED9E8B2}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E57528D7-EBC0-4C6A-95EC-0A804810AB30}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2440,12 +2437,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AJ20" sqref="AJ20"/>
+      <selection pane="topRight" activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2540,53 +2537,53 @@
       <c r="W1" s="12"/>
       <c r="X1" s="12"/>
       <c r="Y1" s="13"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AG1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AH1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AI1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AL1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AM1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AN1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AO1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AP1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AQ1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" s="50" t="s">
+      <c r="AR1" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2664,61 +2661,61 @@
       <c r="Y2" s="19">
         <v>9</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AR2" s="51" t="s">
+      <c r="AR2" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2774,8 +2771,8 @@
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
       <c r="Y3" s="25"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="45"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="43"/>
       <c r="AB3" s="15">
         <v>1</v>
       </c>
@@ -2820,7 +2817,7 @@
       <c r="AQ3" s="18">
         <v>3000</v>
       </c>
-      <c r="AR3" s="52"/>
+      <c r="AR3" s="48"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A4" s="21" t="s">
@@ -2863,17 +2860,17 @@
       <c r="N4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="46"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="25"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="21">
@@ -2920,7 +2917,7 @@
       <c r="AQ4" s="24">
         <v>3000</v>
       </c>
-      <c r="AR4" s="53"/>
+      <c r="AR4" s="49"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A5" s="21" t="s">
@@ -2963,17 +2960,17 @@
       <c r="N5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="46"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="21">
@@ -3018,7 +3015,7 @@
       <c r="AQ5" s="24">
         <v>0</v>
       </c>
-      <c r="AR5" s="53"/>
+      <c r="AR5" s="49"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A6" s="21" t="s">
@@ -3061,17 +3058,17 @@
       <c r="N6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="46"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="25"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="21">
@@ -3118,7 +3115,7 @@
       <c r="AQ6" s="24">
         <v>0</v>
       </c>
-      <c r="AR6" s="53"/>
+      <c r="AR6" s="49"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A7" s="21" t="s">
@@ -3161,17 +3158,17 @@
       <c r="N7" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="46"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="25"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="21">
@@ -3218,7 +3215,7 @@
       <c r="AQ7" s="24">
         <v>0</v>
       </c>
-      <c r="AR7" s="53"/>
+      <c r="AR7" s="49"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A8" s="21" t="s">
@@ -3261,17 +3258,17 @@
       <c r="N8" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="46"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="25"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="21">
@@ -3316,7 +3313,7 @@
       <c r="AQ8" s="24">
         <v>0</v>
       </c>
-      <c r="AR8" s="53"/>
+      <c r="AR8" s="49"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A9" s="21" t="s">
@@ -3359,17 +3356,17 @@
       <c r="N9" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="46"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="25"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="21">
@@ -3414,7 +3411,7 @@
       <c r="AQ9" s="24">
         <v>0</v>
       </c>
-      <c r="AR9" s="53"/>
+      <c r="AR9" s="49"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A10" s="21" t="s">
@@ -3457,17 +3454,17 @@
       <c r="N10" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="46"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="25"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="21">
@@ -3512,7 +3509,7 @@
       <c r="AQ10" s="24">
         <v>0</v>
       </c>
-      <c r="AR10" s="53"/>
+      <c r="AR10" s="49"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A11" s="21" t="s">
@@ -3555,17 +3552,17 @@
       <c r="N11" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="46"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="25"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="21">
@@ -3610,7 +3607,7 @@
       <c r="AQ11" s="24">
         <v>0</v>
       </c>
-      <c r="AR11" s="53"/>
+      <c r="AR11" s="49"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A12" s="21" t="s">
@@ -3653,17 +3650,17 @@
       <c r="N12" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="46"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="25"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="21">
@@ -3708,7 +3705,7 @@
       <c r="AQ12" s="24">
         <v>0</v>
       </c>
-      <c r="AR12" s="53"/>
+      <c r="AR12" s="49"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A13" s="21" t="s">
@@ -3751,17 +3748,17 @@
       <c r="N13" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="46"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="25"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="21">
@@ -3810,7 +3807,7 @@
       <c r="AQ13" s="24">
         <v>0</v>
       </c>
-      <c r="AR13" s="53" t="s">
+      <c r="AR13" s="49" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3855,17 +3852,17 @@
       <c r="N14" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="46"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="25"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="21">
@@ -3910,7 +3907,7 @@
       <c r="AQ14" s="24">
         <v>1000</v>
       </c>
-      <c r="AR14" s="53"/>
+      <c r="AR14" s="49"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A15" s="21" t="s">
@@ -3953,17 +3950,17 @@
       <c r="N15" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="46"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="25"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="21">
@@ -4008,7 +4005,7 @@
       <c r="AQ15" s="24">
         <v>0</v>
       </c>
-      <c r="AR15" s="53"/>
+      <c r="AR15" s="49"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A16" s="21" t="s">
@@ -4051,17 +4048,17 @@
       <c r="N16" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="46"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="25"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="21">
@@ -4106,7 +4103,7 @@
       <c r="AQ16" s="24">
         <v>1000</v>
       </c>
-      <c r="AR16" s="53"/>
+      <c r="AR16" s="49"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A17" s="21" t="s">
@@ -4149,23 +4146,23 @@
       <c r="N17" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33">
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24">
         <v>337</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="24">
         <v>338</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="24">
         <v>339</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="46"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="25"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="21">
@@ -4210,7 +4207,7 @@
       <c r="AQ17" s="24">
         <v>1000</v>
       </c>
-      <c r="AR17" s="53"/>
+      <c r="AR17" s="49"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A18" s="26" t="s">
@@ -4250,30 +4247,30 @@
       <c r="M18" s="30">
         <v>0.3</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35">
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30">
         <v>252</v>
       </c>
-      <c r="R18" s="35">
+      <c r="R18" s="30">
         <v>253</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="30">
         <v>254</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="30">
         <v>255</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="30">
         <v>256</v>
       </c>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="47"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="27"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="26">
@@ -4318,10 +4315,108 @@
       <c r="AQ18" s="30">
         <v>1000</v>
       </c>
-      <c r="AR18" s="54"/>
+      <c r="AR18" s="50"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A19" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <v>200</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
+        <v>10</v>
+      </c>
+      <c r="J19" s="30">
+        <v>10</v>
+      </c>
+      <c r="K19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="30">
+        <v>25</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG19" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ19" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN19" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO19" s="30">
+        <v>100</v>
+      </c>
+      <c r="AP19" s="30">
+        <v>100</v>
+      </c>
+      <c r="AQ19" s="30">
+        <v>1000</v>
+      </c>
+      <c r="AR19" s="50"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI17" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI18" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>主键</t>
   </si>
@@ -326,7 +326,7 @@
     <t>大鱼人</t>
   </si>
   <si>
-    <t>models/items/hex/fish_hex/fish_hex.vmdl</t>
+    <t>models/heroes/slardar/slardar.vmdl</t>
   </si>
   <si>
     <t>mission</t>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>models/heroes/broodmother/spiderling.vmdl</t>
   </si>
   <si>
     <t>public_creature</t>
@@ -2135,7 +2138,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FA9F3FF8-7DE3-4BE7-BD4D-C5651C3EC0C4}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{71E51193-D901-445C-8CF1-D6E144FE92A2}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2144,7 +2147,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{04496306-8032-4739-A940-0241AD689FBA}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9C83EE57-80EE-4FC8-9544-946A25F9D4AE}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2156,7 +2159,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E57528D7-EBC0-4C6A-95EC-0A804810AB30}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{37C4783C-6F29-4241-B5C8-ED7668514E49}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2440,9 +2443,9 @@
   <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AL22" sqref="AL22"/>
+      <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2974,7 +2977,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="24"/>
       <c r="AD5" s="24"/>
@@ -3746,7 +3749,7 @@
         <v>0.3</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -3765,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="AC13" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD13" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24">
@@ -3781,7 +3784,7 @@
         <v>66</v>
       </c>
       <c r="AI13" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ13" s="24" t="s">
         <v>99</v>
@@ -3808,15 +3811,15 @@
         <v>0</v>
       </c>
       <c r="AR13" s="49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A14" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
@@ -3850,7 +3853,7 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -3881,7 +3884,7 @@
         <v>66</v>
       </c>
       <c r="AI14" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ14" s="24" t="s">
         <v>99</v>
@@ -3911,10 +3914,10 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A15" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
@@ -3976,7 +3979,7 @@
         <v>0.5</v>
       </c>
       <c r="AH15" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI15" s="24" t="s">
         <v>67</v>
@@ -4009,10 +4012,10 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A16" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
@@ -4046,7 +4049,7 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -4077,7 +4080,7 @@
         <v>66</v>
       </c>
       <c r="AI16" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ16" s="24" t="s">
         <v>99</v>
@@ -4107,10 +4110,10 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A17" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
@@ -4144,7 +4147,7 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -4178,7 +4181,7 @@
         <v>0.5</v>
       </c>
       <c r="AH17" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI17" s="24" t="s">
         <v>67</v>
@@ -4211,10 +4214,10 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A18" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="26" t="s">
@@ -4248,7 +4251,7 @@
         <v>0.3</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
@@ -4286,7 +4289,7 @@
         <v>0.5</v>
       </c>
       <c r="AH18" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI18" s="30" t="s">
         <v>67</v>
@@ -4319,10 +4322,10 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A19" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="26" t="s">
@@ -4356,7 +4359,7 @@
         <v>0.3</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
@@ -4384,7 +4387,7 @@
         <v>0.5</v>
       </c>
       <c r="AH19" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI19" s="30" t="s">
         <v>67</v>
@@ -4416,7 +4419,7 @@
       <c r="AR19" s="50"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI18" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI19" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -2138,7 +2138,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{71E51193-D901-445C-8CF1-D6E144FE92A2}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{65751D33-EC73-42E0-BD23-3E6FC57D7639}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2147,7 +2147,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9C83EE57-80EE-4FC8-9544-946A25F9D4AE}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B4117542-B51D-4116-B87E-6ED731F11855}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2159,7 +2159,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{37C4783C-6F29-4241-B5C8-ED7668514E49}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9C1E3B42-DAE4-48BD-B940-D80C4CD9995E}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2443,9 +2443,9 @@
   <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
+      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2977,7 +2977,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="24"/>
       <c r="AD5" s="24"/>
@@ -3075,7 +3075,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="24" t="s">
         <v>65</v>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="457"/>
+    <workbookView windowWidth="18375" windowHeight="8505" tabRatio="457"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="5" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <t>半人马</t>
   </si>
   <si>
-    <t>models/creeps/neutral_creeps/n_creep_centaur_lrg/n_creep_centaur_lrg.vmdl</t>
+    <t>models/heroes/centaur/centaur.vmdl</t>
   </si>
   <si>
     <t>npc_mission_dummy</t>
@@ -2442,10 +2442,10 @@
   <sheetPr/>
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="topRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3075,7 +3075,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AC6" s="24" t="s">
         <v>65</v>
@@ -3857,13 +3857,27 @@
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
+      <c r="Q14" s="24">
+        <v>8478</v>
+      </c>
+      <c r="R14" s="24">
+        <v>8479</v>
+      </c>
+      <c r="S14" s="24">
+        <v>8481</v>
+      </c>
+      <c r="T14" s="24">
+        <v>8483</v>
+      </c>
+      <c r="U14" s="24">
+        <v>8491</v>
+      </c>
+      <c r="V14" s="24">
+        <v>8493</v>
+      </c>
+      <c r="W14" s="24">
+        <v>12945</v>
+      </c>
       <c r="X14" s="24"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="5"/>
@@ -4152,16 +4166,20 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24">
-        <v>337</v>
+        <v>8885</v>
       </c>
       <c r="R17" s="24">
-        <v>338</v>
+        <v>8886</v>
       </c>
       <c r="S17" s="24">
-        <v>339</v>
-      </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
+        <v>8887</v>
+      </c>
+      <c r="T17" s="24">
+        <v>8888</v>
+      </c>
+      <c r="U17" s="24">
+        <v>8889</v>
+      </c>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
@@ -4173,7 +4191,9 @@
       </c>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
+      <c r="AE17" s="24">
+        <v>1</v>
+      </c>
       <c r="AF17" s="24">
         <v>300</v>
       </c>
@@ -4256,20 +4276,18 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30">
-        <v>252</v>
+        <v>9126</v>
       </c>
       <c r="R18" s="30">
-        <v>253</v>
+        <v>9127</v>
       </c>
       <c r="S18" s="30">
-        <v>254</v>
+        <v>9128</v>
       </c>
       <c r="T18" s="30">
-        <v>255</v>
-      </c>
-      <c r="U18" s="30">
-        <v>256</v>
-      </c>
+        <v>13773</v>
+      </c>
+      <c r="U18" s="30"/>
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18375" windowHeight="8505" tabRatio="457"/>
+    <workbookView windowWidth="27945" windowHeight="12345" tabRatio="457"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="5" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <t>箱子</t>
   </si>
   <si>
-    <t>models/heroes/ringmaster/ringmaster_box.vmdl</t>
+    <t>models/prop/prop0021/prop0021.vmdl</t>
   </si>
   <si>
     <t>npc_mission_big_fish</t>
@@ -2138,7 +2138,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{65751D33-EC73-42E0-BD23-3E6FC57D7639}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{55BA1301-912F-431D-828C-939CFD245EB1}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2147,7 +2147,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B4117542-B51D-4116-B87E-6ED731F11855}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D2DCE37B-8677-469E-A100-782891637DFA}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2159,7 +2159,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9C1E3B42-DAE4-48BD-B940-D80C4CD9995E}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F1250F7B-0E74-46D4-B520-B29F39E6B294}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2442,10 +2442,10 @@
   <sheetPr/>
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R15" sqref="R15"/>
+      <selection pane="topRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3569,7 +3569,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24"/>
@@ -3655,10 +3655,18 @@
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="Q12" s="24">
+        <v>273</v>
+      </c>
+      <c r="R12" s="24">
+        <v>274</v>
+      </c>
+      <c r="S12" s="24">
+        <v>275</v>
+      </c>
+      <c r="T12" s="24">
+        <v>276</v>
+      </c>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
@@ -3667,7 +3675,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
@@ -3753,10 +3761,18 @@
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+      <c r="Q13" s="24">
+        <v>23455</v>
+      </c>
+      <c r="R13" s="24">
+        <v>23456</v>
+      </c>
+      <c r="S13" s="24">
+        <v>23457</v>
+      </c>
+      <c r="T13" s="24">
+        <v>23458</v>
+      </c>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
@@ -3765,7 +3781,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AC13" s="24" t="s">
         <v>103</v>
@@ -3883,7 +3899,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
   <si>
     <t>主键</t>
   </si>
@@ -405,6 +405,15 @@
   </si>
   <si>
     <t>models/props_structures/radiant_statue001.vmdl</t>
+  </si>
+  <si>
+    <t>npc_public_homing_missile</t>
+  </si>
+  <si>
+    <t>追踪导弹</t>
+  </si>
+  <si>
+    <t>models/heroes/gyro/gyro_missile.vmdl</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2147,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{55BA1301-912F-431D-828C-939CFD245EB1}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EEA55DB8-E60B-437F-93BC-979447CAEDBC}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2147,7 +2156,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D2DCE37B-8677-469E-A100-782891637DFA}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B5238602-0F46-41CB-8C89-3411F5CA444B}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2159,7 +2168,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F1250F7B-0E74-46D4-B520-B29F39E6B294}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{384CFBCB-6264-441C-A0E6-9274D346737D}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2440,12 +2449,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR19"/>
+  <dimension ref="A1:AR20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W23" sqref="W23"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2812,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="AO3" s="18">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="18">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="18">
         <v>3000</v>
@@ -2879,9 +2888,7 @@
       <c r="AB4" s="21">
         <v>1</v>
       </c>
-      <c r="AC4" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="24"/>
       <c r="AF4" s="24">
@@ -2912,10 +2919,10 @@
         <v>30</v>
       </c>
       <c r="AO4" s="24">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="24">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="24">
         <v>3000</v>
@@ -3077,9 +3084,7 @@
       <c r="AB6" s="21">
         <v>2.5</v>
       </c>
-      <c r="AC6" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24">
@@ -3177,9 +3182,7 @@
       <c r="AB7" s="21">
         <v>1</v>
       </c>
-      <c r="AC7" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
       <c r="AE7" s="24"/>
       <c r="AF7" s="24">
@@ -4452,8 +4455,106 @@
       </c>
       <c r="AR19" s="50"/>
     </row>
+    <row r="20" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A20" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>200</v>
+      </c>
+      <c r="H20" s="30">
+        <v>0</v>
+      </c>
+      <c r="I20" s="30">
+        <v>10</v>
+      </c>
+      <c r="J20" s="30">
+        <v>10</v>
+      </c>
+      <c r="K20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="30">
+        <v>25</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM20" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN20" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO20" s="30">
+        <v>100</v>
+      </c>
+      <c r="AP20" s="30">
+        <v>100</v>
+      </c>
+      <c r="AQ20" s="30">
+        <v>1000</v>
+      </c>
+      <c r="AR20" s="50"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI19" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI20" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
   <si>
     <t>主键</t>
   </si>
@@ -414,6 +414,24 @@
   </si>
   <si>
     <t>models/heroes/gyro/gyro_missile.vmdl</t>
+  </si>
+  <si>
+    <t>npc_public_garbage_0</t>
+  </si>
+  <si>
+    <t>可回收垃圾</t>
+  </si>
+  <si>
+    <t>models/props_debris/merchant_debris_chest002.vmdl</t>
+  </si>
+  <si>
+    <t>npc_public_garbage_1</t>
+  </si>
+  <si>
+    <t>不可回收垃圾</t>
+  </si>
+  <si>
+    <t>models/props_generic/sack_bag_03.vmdl</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2165,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EEA55DB8-E60B-437F-93BC-979447CAEDBC}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B8860B92-D4AE-490B-B0C4-D2716F851C18}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2156,7 +2174,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B5238602-0F46-41CB-8C89-3411F5CA444B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0F7AB327-26B3-49C6-B3F3-8C2916090CDC}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2168,7 +2186,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{384CFBCB-6264-441C-A0E6-9274D346737D}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AC348177-24DB-4C02-A881-F87A52EABF99}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2449,12 +2467,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4553,6 +4571,202 @@
       </c>
       <c r="AR20" s="50"/>
     </row>
+    <row r="21" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A21" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>200</v>
+      </c>
+      <c r="H21" s="30">
+        <v>0</v>
+      </c>
+      <c r="I21" s="30">
+        <v>10</v>
+      </c>
+      <c r="J21" s="30">
+        <v>10</v>
+      </c>
+      <c r="K21" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="30">
+        <v>25</v>
+      </c>
+      <c r="M21" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG21" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI21" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ21" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK21" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM21" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN21" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="50"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A22" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>200</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0</v>
+      </c>
+      <c r="I22" s="30">
+        <v>10</v>
+      </c>
+      <c r="J22" s="30">
+        <v>10</v>
+      </c>
+      <c r="K22" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="30">
+        <v>25</v>
+      </c>
+      <c r="M22" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG22" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK22" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM22" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN22" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="50"/>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI20" etc:filterBottomFollowUsedRange="0">
     <extLst/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
   <si>
     <t>主键</t>
   </si>
@@ -413,7 +413,7 @@
     <t>追踪导弹</t>
   </si>
   <si>
-    <t>models/heroes/gyro/gyro_missile.vmdl</t>
+    <t>models/items/gyrocopter/skyhigh_bomb_missle/skyhigh_bomb.vmdl</t>
   </si>
   <si>
     <t>npc_public_garbage_0</t>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>models/props_generic/sack_bag_03.vmdl</t>
+  </si>
+  <si>
+    <t>npc_public_hide_additive</t>
+  </si>
+  <si>
+    <t>隐藏单位</t>
+  </si>
+  <si>
+    <t>npc_public_hide_creature</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2174,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B8860B92-D4AE-490B-B0C4-D2716F851C18}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D206A299-A430-4456-807B-9E8E64748068}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2174,7 +2183,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0F7AB327-26B3-49C6-B3F3-8C2916090CDC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BD967C8C-EFA5-4B23-93A2-95FF586CB2C9}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2186,7 +2195,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AC348177-24DB-4C02-A881-F87A52EABF99}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{DD2FAE8A-5742-4D03-9F34-02D8269942D3}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2467,12 +2476,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D20" sqref="D20:D22"/>
+      <selection pane="topRight" activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4473,7 +4482,7 @@
       </c>
       <c r="AR19" s="50"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+    <row r="20" s="2" customFormat="1" ht="33" spans="1:44">
       <c r="A20" s="26" t="s">
         <v>125</v>
       </c>
@@ -4767,8 +4776,204 @@
       </c>
       <c r="AR22" s="50"/>
     </row>
+    <row r="23" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A23" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <v>200</v>
+      </c>
+      <c r="H23" s="30">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30">
+        <v>10</v>
+      </c>
+      <c r="J23" s="30">
+        <v>10</v>
+      </c>
+      <c r="K23" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="30">
+        <v>25</v>
+      </c>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG23" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI23" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM23" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN23" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="50"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A24" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <v>200</v>
+      </c>
+      <c r="H24" s="30">
+        <v>0</v>
+      </c>
+      <c r="I24" s="30">
+        <v>10</v>
+      </c>
+      <c r="J24" s="30">
+        <v>10</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="30">
+        <v>25</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG24" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI24" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM24" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN24" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="50"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI20" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI22" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -2481,7 +2481,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC24" sqref="AC24"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -10,7 +10,7 @@
     <sheet name="public" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$1:$AI$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="146">
   <si>
     <t>主键</t>
   </si>
@@ -264,6 +264,33 @@
   </si>
   <si>
     <t>c_resource</t>
+  </si>
+  <si>
+    <t>npc_item_hp</t>
+  </si>
+  <si>
+    <t>绿瓶</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/salve.vmdl</t>
+  </si>
+  <si>
+    <t>npc_item_mp</t>
+  </si>
+  <si>
+    <t>蓝瓶</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/salve_blue.vmdl</t>
+  </si>
+  <si>
+    <t>npc_item_all</t>
+  </si>
+  <si>
+    <t>红瓶</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/salve_red.vmdl</t>
   </si>
   <si>
     <t>npc_football</t>
@@ -2174,7 +2201,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{D206A299-A430-4456-807B-9E8E64748068}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{46D8AC62-CE84-45FB-8A7F-7C0B0760068C}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2183,7 +2210,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BD967C8C-EFA5-4B23-93A2-95FF586CB2C9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E7AF1D64-9CFF-4646-8209-20A05A3BF8F9}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2195,7 +2222,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{DD2FAE8A-5742-4D03-9F34-02D8269942D3}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{39A4752A-9E7C-41E4-BDE2-4DE8BDBBC949}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2476,12 +2503,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR24"/>
+  <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3109,7 +3136,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="21">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
@@ -3127,7 +3154,7 @@
         <v>67</v>
       </c>
       <c r="AJ6" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK6" s="24">
         <v>1</v>
@@ -3154,10 +3181,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21" t="s">
@@ -3191,7 +3218,7 @@
         <v>0.3</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
@@ -3225,7 +3252,7 @@
         <v>67</v>
       </c>
       <c r="AJ7" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK7" s="24">
         <v>1</v>
@@ -3252,10 +3279,10 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21" t="s">
@@ -3289,7 +3316,7 @@
         <v>0.3</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -3323,7 +3350,7 @@
         <v>67</v>
       </c>
       <c r="AJ8" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AK8" s="24">
         <v>1</v>
@@ -3403,7 +3430,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
@@ -3421,7 +3448,7 @@
         <v>67</v>
       </c>
       <c r="AJ9" s="24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK9" s="24">
         <v>1</v>
@@ -3448,14 +3475,14 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A10" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E10" s="22">
         <v>0</v>
@@ -3485,7 +3512,7 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -3519,7 +3546,7 @@
         <v>67</v>
       </c>
       <c r="AJ10" s="24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK10" s="24">
         <v>1</v>
@@ -3546,14 +3573,14 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A11" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E11" s="22">
         <v>0</v>
@@ -3562,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="23">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H11" s="24">
         <v>0</v>
@@ -3583,7 +3610,7 @@
         <v>0.3</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
@@ -3599,7 +3626,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24"/>
@@ -3617,7 +3644,7 @@
         <v>67</v>
       </c>
       <c r="AJ11" s="24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK11" s="24">
         <v>1</v>
@@ -3651,7 +3678,7 @@
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E12" s="22">
         <v>0</v>
@@ -3685,18 +3712,10 @@
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-      <c r="Q12" s="24">
-        <v>273</v>
-      </c>
-      <c r="R12" s="24">
-        <v>274</v>
-      </c>
-      <c r="S12" s="24">
-        <v>275</v>
-      </c>
-      <c r="T12" s="24">
-        <v>276</v>
-      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
@@ -3705,7 +3724,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="21">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
@@ -3723,7 +3742,7 @@
         <v>67</v>
       </c>
       <c r="AJ12" s="24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AK12" s="24">
         <v>1</v>
@@ -3750,10 +3769,10 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21" t="s">
@@ -3787,22 +3806,14 @@
         <v>0.3</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="24">
-        <v>23455</v>
-      </c>
-      <c r="R13" s="24">
-        <v>23456</v>
-      </c>
-      <c r="S13" s="24">
-        <v>23457</v>
-      </c>
-      <c r="T13" s="24">
-        <v>23458</v>
-      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
@@ -3811,17 +3822,13 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="21">
-        <v>1.25</v>
-      </c>
-      <c r="AC13" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD13" s="24" t="s">
-        <v>104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
       <c r="AE13" s="24"/>
       <c r="AF13" s="24">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG13" s="22">
         <v>0.5</v>
@@ -3830,10 +3837,10 @@
         <v>66</v>
       </c>
       <c r="AI13" s="24" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="AJ13" s="24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AK13" s="24">
         <v>1</v>
@@ -3856,16 +3863,14 @@
       <c r="AQ13" s="24">
         <v>0</v>
       </c>
-      <c r="AR13" s="49" t="s">
-        <v>106</v>
-      </c>
+      <c r="AR13" s="49"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A14" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
@@ -3878,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="23">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="H14" s="24">
         <v>0</v>
@@ -3899,43 +3904,29 @@
         <v>0.3</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="24">
-        <v>8478</v>
-      </c>
-      <c r="R14" s="24">
-        <v>8479</v>
-      </c>
-      <c r="S14" s="24">
-        <v>8481</v>
-      </c>
-      <c r="T14" s="24">
-        <v>8483</v>
-      </c>
-      <c r="U14" s="24">
-        <v>8491</v>
-      </c>
-      <c r="V14" s="24">
-        <v>8493</v>
-      </c>
-      <c r="W14" s="24">
-        <v>12945</v>
-      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="21">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="24">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AG14" s="22">
         <v>0.5</v>
@@ -3944,10 +3935,10 @@
         <v>66</v>
       </c>
       <c r="AI14" s="24" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="AJ14" s="24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AK14" s="24">
         <v>1</v>
@@ -3968,20 +3959,20 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="24">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="49"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A15" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E15" s="22">
         <v>0</v>
@@ -4011,14 +4002,22 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="Q15" s="24">
+        <v>273</v>
+      </c>
+      <c r="R15" s="24">
+        <v>274</v>
+      </c>
+      <c r="S15" s="24">
+        <v>275</v>
+      </c>
+      <c r="T15" s="24">
+        <v>276</v>
+      </c>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
@@ -4027,25 +4026,25 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AG15" s="22">
         <v>0.5</v>
       </c>
       <c r="AH15" s="24" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="AI15" s="24" t="s">
         <v>67</v>
       </c>
       <c r="AJ15" s="24" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AK15" s="24">
         <v>1</v>
@@ -4072,10 +4071,10 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A16" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
@@ -4109,14 +4108,22 @@
         <v>0.3</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
+      <c r="Q16" s="24">
+        <v>23455</v>
+      </c>
+      <c r="R16" s="24">
+        <v>23456</v>
+      </c>
+      <c r="S16" s="24">
+        <v>23457</v>
+      </c>
+      <c r="T16" s="24">
+        <v>23458</v>
+      </c>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
@@ -4125,13 +4132,17 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="21">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD16" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="AE16" s="24"/>
       <c r="AF16" s="24">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG16" s="22">
         <v>0.5</v>
@@ -4140,10 +4151,10 @@
         <v>66</v>
       </c>
       <c r="AI16" s="24" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AJ16" s="24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AK16" s="24">
         <v>1</v>
@@ -4164,9 +4175,11 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="24">
-        <v>1000</v>
-      </c>
-      <c r="AR16" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="49" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A17" s="21" t="s">
@@ -4212,48 +4225,50 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24">
-        <v>8885</v>
+        <v>8478</v>
       </c>
       <c r="R17" s="24">
-        <v>8886</v>
+        <v>8479</v>
       </c>
       <c r="S17" s="24">
-        <v>8887</v>
+        <v>8481</v>
       </c>
       <c r="T17" s="24">
-        <v>8888</v>
+        <v>8483</v>
       </c>
       <c r="U17" s="24">
-        <v>8889</v>
-      </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
+        <v>8491</v>
+      </c>
+      <c r="V17" s="24">
+        <v>8493</v>
+      </c>
+      <c r="W17" s="24">
+        <v>12945</v>
+      </c>
       <c r="X17" s="24"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="21">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
-      <c r="AE17" s="24">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="24"/>
       <c r="AF17" s="24">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AG17" s="22">
         <v>0.5</v>
       </c>
       <c r="AH17" s="24" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="AI17" s="24" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="AJ17" s="24" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="AK17" s="24">
         <v>1</v>
@@ -4279,306 +4294,310 @@
       <c r="AR17" s="49"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>120</v>
       </c>
       <c r="C18" s="20"/>
-      <c r="D18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="28">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="D18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
         <v>200</v>
       </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
         <v>10</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="24">
         <v>10</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="24">
         <v>0.5</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="24">
         <v>25</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="24">
         <v>0.3</v>
       </c>
-      <c r="N18" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30">
-        <v>9126</v>
-      </c>
-      <c r="R18" s="30">
-        <v>9127</v>
-      </c>
-      <c r="S18" s="30">
-        <v>9128</v>
-      </c>
-      <c r="T18" s="30">
-        <v>13773</v>
-      </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="27"/>
+      <c r="N18" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="25"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="26">
+      <c r="AB18" s="21">
         <v>1</v>
       </c>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30">
-        <v>300</v>
-      </c>
-      <c r="AG18" s="28">
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24">
+        <v>450</v>
+      </c>
+      <c r="AG18" s="22">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI18" s="30" t="s">
+      <c r="AH18" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AJ18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK18" s="30">
+      <c r="AJ18" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="24">
         <v>1</v>
       </c>
-      <c r="AL18" s="30" t="s">
+      <c r="AL18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AM18" s="30">
+      <c r="AM18" s="24">
         <v>160</v>
       </c>
-      <c r="AN18" s="30">
+      <c r="AN18" s="24">
         <v>30</v>
       </c>
-      <c r="AO18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="30">
-        <v>1000</v>
-      </c>
-      <c r="AR18" s="50"/>
+      <c r="AO18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="49"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="28">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28">
-        <v>0</v>
-      </c>
-      <c r="G19" s="29">
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
         <v>200</v>
       </c>
-      <c r="H19" s="30">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
         <v>10</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="24">
         <v>10</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="24">
         <v>0.5</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="24">
         <v>25</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="24">
         <v>0.3</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="27"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="25"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="26">
+      <c r="AB19" s="21">
         <v>1</v>
       </c>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30">
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24">
         <v>300</v>
       </c>
-      <c r="AG19" s="28">
+      <c r="AG19" s="22">
         <v>0.5</v>
       </c>
-      <c r="AH19" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI19" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ19" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK19" s="30">
+      <c r="AH19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI19" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK19" s="24">
         <v>1</v>
       </c>
-      <c r="AL19" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM19" s="30">
+      <c r="AL19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM19" s="24">
         <v>160</v>
       </c>
-      <c r="AN19" s="30">
+      <c r="AN19" s="24">
         <v>30</v>
       </c>
-      <c r="AO19" s="30">
-        <v>100</v>
-      </c>
-      <c r="AP19" s="30">
-        <v>100</v>
-      </c>
-      <c r="AQ19" s="30">
+      <c r="AO19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="24">
         <v>1000</v>
       </c>
-      <c r="AR19" s="50"/>
+      <c r="AR19" s="49"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="33" spans="1:44">
-      <c r="A20" s="26" t="s">
+    <row r="20" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A20" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>126</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="D20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
         <v>200</v>
       </c>
-      <c r="H20" s="30">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30">
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
         <v>10</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="24">
         <v>10</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="24">
         <v>0.5</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="24">
         <v>25</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="24">
         <v>0.3</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="27"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24">
+        <v>8885</v>
+      </c>
+      <c r="R20" s="24">
+        <v>8886</v>
+      </c>
+      <c r="S20" s="24">
+        <v>8887</v>
+      </c>
+      <c r="T20" s="24">
+        <v>8888</v>
+      </c>
+      <c r="U20" s="24">
+        <v>8889</v>
+      </c>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="25"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="26">
+      <c r="AB20" s="21">
         <v>1</v>
       </c>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30">
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="24">
         <v>300</v>
       </c>
-      <c r="AG20" s="28">
+      <c r="AG20" s="22">
         <v>0.5</v>
       </c>
-      <c r="AH20" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI20" s="30" t="s">
+      <c r="AH20" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AJ20" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK20" s="30">
+      <c r="AJ20" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="24">
         <v>1</v>
       </c>
-      <c r="AL20" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM20" s="30">
+      <c r="AL20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM20" s="24">
         <v>160</v>
       </c>
-      <c r="AN20" s="30">
+      <c r="AN20" s="24">
         <v>30</v>
       </c>
-      <c r="AO20" s="30">
-        <v>100</v>
-      </c>
-      <c r="AP20" s="30">
-        <v>100</v>
-      </c>
-      <c r="AQ20" s="30">
+      <c r="AO20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="24">
         <v>1000</v>
       </c>
-      <c r="AR20" s="50"/>
+      <c r="AR20" s="49"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A21" s="26" t="s">
@@ -4589,7 +4608,7 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E21" s="28">
         <v>0</v>
@@ -4623,10 +4642,18 @@
       </c>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
+      <c r="Q21" s="30">
+        <v>9126</v>
+      </c>
+      <c r="R21" s="30">
+        <v>9127</v>
+      </c>
+      <c r="S21" s="30">
+        <v>9128</v>
+      </c>
+      <c r="T21" s="30">
+        <v>13773</v>
+      </c>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
@@ -4635,7 +4662,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
@@ -4647,19 +4674,19 @@
         <v>0.5</v>
       </c>
       <c r="AH21" s="30" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="AI21" s="30" t="s">
         <v>67</v>
       </c>
       <c r="AJ21" s="30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK21" s="30">
         <v>1</v>
       </c>
       <c r="AL21" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AM21" s="30">
         <v>160</v>
@@ -4674,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR21" s="50"/>
     </row>
@@ -4687,7 +4714,7 @@
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E22" s="28">
         <v>0</v>
@@ -4733,7 +4760,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
@@ -4745,13 +4772,13 @@
         <v>0.5</v>
       </c>
       <c r="AH22" s="30" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="AI22" s="30" t="s">
         <v>67</v>
       </c>
       <c r="AJ22" s="30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK22" s="30">
         <v>1</v>
@@ -4766,17 +4793,17 @@
         <v>30</v>
       </c>
       <c r="AO22" s="30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AP22" s="30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ22" s="30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR22" s="50"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+    <row r="23" s="2" customFormat="1" ht="33" spans="1:44">
       <c r="A23" s="26" t="s">
         <v>134</v>
       </c>
@@ -4812,10 +4839,10 @@
         <v>25</v>
       </c>
       <c r="M23" s="30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
@@ -4849,7 +4876,7 @@
         <v>67</v>
       </c>
       <c r="AJ23" s="30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK23" s="30">
         <v>1</v>
@@ -4864,26 +4891,26 @@
         <v>30</v>
       </c>
       <c r="AO23" s="30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AP23" s="30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ23" s="30">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR23" s="50"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
       <c r="A24" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E24" s="28">
         <v>0</v>
@@ -4910,10 +4937,10 @@
         <v>25</v>
       </c>
       <c r="M24" s="30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
@@ -4929,7 +4956,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
@@ -4947,7 +4974,7 @@
         <v>67</v>
       </c>
       <c r="AJ24" s="30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AK24" s="30">
         <v>1</v>
@@ -4972,8 +4999,302 @@
       </c>
       <c r="AR24" s="50"/>
     </row>
+    <row r="25" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A25" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="29">
+        <v>200</v>
+      </c>
+      <c r="H25" s="30">
+        <v>0</v>
+      </c>
+      <c r="I25" s="30">
+        <v>10</v>
+      </c>
+      <c r="J25" s="30">
+        <v>10</v>
+      </c>
+      <c r="K25" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="30">
+        <v>25</v>
+      </c>
+      <c r="M25" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG25" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI25" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM25" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN25" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="50"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A26" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="29">
+        <v>200</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30">
+        <v>10</v>
+      </c>
+      <c r="J26" s="30">
+        <v>10</v>
+      </c>
+      <c r="K26" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="30">
+        <v>25</v>
+      </c>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG26" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI26" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ26" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM26" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN26" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="50"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A27" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0</v>
+      </c>
+      <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="29">
+        <v>200</v>
+      </c>
+      <c r="H27" s="30">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30">
+        <v>10</v>
+      </c>
+      <c r="J27" s="30">
+        <v>10</v>
+      </c>
+      <c r="K27" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="30">
+        <v>25</v>
+      </c>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG27" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH27" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI27" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM27" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN27" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="50"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI22" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -413,7 +413,7 @@
     <t>夜宴任务</t>
   </si>
   <si>
-    <t>models/heroes/nightstalker/nightstalker.vmdl</t>
+    <t>models/props_structures/rock_golem/tower_dire_rock_golem.vmdl</t>
   </si>
   <si>
     <t>npc_mission_npc_radiant</t>
@@ -422,7 +422,7 @@
     <t>天辉任务</t>
   </si>
   <si>
-    <t>models/heroes/keeper_of_the_light/keeper_of_the_light.vmdl</t>
+    <t>models/props_structures/rock_golem/tower_radiant_rock_golem.vmdl</t>
   </si>
   <si>
     <t>npc_altar</t>
@@ -2201,7 +2201,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{46D8AC62-CE84-45FB-8A7F-7C0B0760068C}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5F982B43-ABDC-4C67-B0DB-CAADB0DDA852}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2210,7 +2210,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E7AF1D64-9CFF-4646-8209-20A05A3BF8F9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B6205941-E8D6-4776-B774-87A8F2289119}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2222,7 +2222,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{39A4752A-9E7C-41E4-BDE2-4DE8BDBBC949}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{4CCB2FFE-DC4B-465C-AD7A-D6D3A5D6B53D}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2505,10 +2505,10 @@
   <sheetPr/>
   <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+      <selection pane="topRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="AR19" s="49"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+    <row r="20" s="2" customFormat="1" ht="33" spans="1:44">
       <c r="A20" s="21" t="s">
         <v>125</v>
       </c>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="AR20" s="49"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+    <row r="21" s="2" customFormat="1" ht="33" spans="1:44">
       <c r="A21" s="26" t="s">
         <v>128</v>
       </c>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -2201,7 +2201,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5F982B43-ABDC-4C67-B0DB-CAADB0DDA852}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{076D0A02-B4EF-49F1-B51C-22F9B9C64E2D}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2210,7 +2210,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B6205941-E8D6-4776-B774-87A8F2289119}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{8C48FF17-2510-47CE-BA22-F1975A3BEBCA}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2222,7 +2222,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{4CCB2FFE-DC4B-465C-AD7A-D6D3A5D6B53D}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{94924478-A35F-4BEC-BA18-60E2D9A012F0}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2505,10 +2505,10 @@
   <sheetPr/>
   <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P21" sqref="P21"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -2201,7 +2201,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{076D0A02-B4EF-49F1-B51C-22F9B9C64E2D}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A1A39468-049F-441E-BF23-70184439D862}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2210,7 +2210,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{8C48FF17-2510-47CE-BA22-F1975A3BEBCA}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D4EC934B-2196-4EE3-BC12-62E7E80C0A8B}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2222,7 +2222,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{94924478-A35F-4BEC-BA18-60E2D9A012F0}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{94CE1DEB-233E-4CED-A1B8-1D6F737A95D7}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2508,7 +2508,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4532,21 +4532,11 @@
       </c>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="24">
-        <v>8885</v>
-      </c>
-      <c r="R20" s="24">
-        <v>8886</v>
-      </c>
-      <c r="S20" s="24">
-        <v>8887</v>
-      </c>
-      <c r="T20" s="24">
-        <v>8888</v>
-      </c>
-      <c r="U20" s="24">
-        <v>8889</v>
-      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="24"/>
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
@@ -4642,18 +4632,10 @@
       </c>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
-      <c r="Q21" s="30">
-        <v>9126</v>
-      </c>
-      <c r="R21" s="30">
-        <v>9127</v>
-      </c>
-      <c r="S21" s="30">
-        <v>9128</v>
-      </c>
-      <c r="T21" s="30">
-        <v>13773</v>
-      </c>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>

--- a/excels/units/public.xlsx
+++ b/excels/units/public.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="149">
   <si>
     <t>主键</t>
   </si>
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t>npc_public_hide_creature</t>
+  </si>
+  <si>
+    <t>npc_public_treasure_chest</t>
+  </si>
+  <si>
+    <t>奖励宝箱</t>
+  </si>
+  <si>
+    <t>models/props_gameplay/treasure_chest_gold.vmdl</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2210,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A1A39468-049F-441E-BF23-70184439D862}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4C477E52-FCF2-4A78-AC46-E59E78D3252E}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2210,7 +2219,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D4EC934B-2196-4EE3-BC12-62E7E80C0A8B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{41A89C26-F1D9-4F80-8844-6C0AA0E93F14}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -2222,7 +2231,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{94CE1DEB-233E-4CED-A1B8-1D6F737A95D7}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{543FB3E0-3BC5-4AD7-9908-51D009533C95}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2503,12 +2512,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5275,6 +5284,104 @@
       </c>
       <c r="AR27" s="50"/>
     </row>
+    <row r="28" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:44">
+      <c r="A28" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29">
+        <v>200</v>
+      </c>
+      <c r="H28" s="30">
+        <v>0</v>
+      </c>
+      <c r="I28" s="30">
+        <v>10</v>
+      </c>
+      <c r="J28" s="30">
+        <v>10</v>
+      </c>
+      <c r="K28" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="30">
+        <v>25</v>
+      </c>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30">
+        <v>300</v>
+      </c>
+      <c r="AG28" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="AH28" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK28" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM28" s="30">
+        <v>160</v>
+      </c>
+      <c r="AN28" s="30">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="30">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="50"/>
+    </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI27" etc:filterBottomFollowUsedRange="0">
     <extLst/>
